--- a/Other/Gear Ratio Optimization FE12/FE12 torque power calcs.xlsx
+++ b/Other/Gear Ratio Optimization FE12/FE12 torque power calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7d20e2856b032f9f/Documents/UC Davis Files/FORMULA/Powertrain-Modeling/Other/Gear Ratio Optimization FE12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{1A2CD3D2-780B-4082-BBD4-B28B51CA0AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDDFC42F-D017-4D71-8FEA-74A7D017875C}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{1A2CD3D2-780B-4082-BBD4-B28B51CA0AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81C41A26-1605-42D4-8ED8-FC8CB757D435}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{81F94CF2-8FDE-48ED-A122-858CA0EB3FB2}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="6216" windowHeight="12336" xr2:uid="{81F94CF2-8FDE-48ED-A122-858CA0EB3FB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>RPM</t>
   </si>
@@ -106,6 +106,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,15 +429,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2095B609-177C-41E9-A74A-A7405C0B2681}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,8 +465,17 @@
       <c r="O1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3400</v>
       </c>
@@ -488,7 +501,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3600</v>
       </c>
@@ -514,7 +527,7 @@
         <v>26500</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3800</v>
       </c>
@@ -535,8 +548,11 @@
         <f t="shared" si="1"/>
         <v>188.46315789473684</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q4">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4000</v>
       </c>
@@ -557,8 +573,18 @@
         <f t="shared" si="1"/>
         <v>179.04</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q5">
+        <v>3500</v>
+      </c>
+      <c r="R5">
+        <v>80</v>
+      </c>
+      <c r="S5">
+        <f>R5*9548.8/Q5</f>
+        <v>218.25828571428571</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4200</v>
       </c>
@@ -579,8 +605,18 @@
         <f t="shared" si="1"/>
         <v>170.51428571428571</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q6">
+        <v>3600</v>
+      </c>
+      <c r="R6">
+        <v>80</v>
+      </c>
+      <c r="S6">
+        <f>R6*9548.8/Q6</f>
+        <v>212.19555555555556</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4400</v>
       </c>
@@ -601,8 +637,18 @@
         <f t="shared" si="1"/>
         <v>162.76363636363635</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q7">
+        <v>3800</v>
+      </c>
+      <c r="R7">
+        <v>80</v>
+      </c>
+      <c r="S7">
+        <f>R7*9548.8/Q7</f>
+        <v>201.02736842105264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4600</v>
       </c>
@@ -623,8 +669,18 @@
         <f t="shared" si="1"/>
         <v>155.68695652173912</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q8">
+        <v>4000</v>
+      </c>
+      <c r="R8">
+        <v>80</v>
+      </c>
+      <c r="S8">
+        <f>R8*9548.8/Q8</f>
+        <v>190.976</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4800</v>
       </c>
@@ -645,8 +701,18 @@
         <f t="shared" si="1"/>
         <v>149.19999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q9">
+        <v>4200</v>
+      </c>
+      <c r="R9">
+        <v>80</v>
+      </c>
+      <c r="S9">
+        <f>R9*9548.8/Q9</f>
+        <v>181.88190476190476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5000</v>
       </c>
@@ -667,8 +733,18 @@
         <f t="shared" si="1"/>
         <v>143.232</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q10">
+        <v>4400</v>
+      </c>
+      <c r="R10">
+        <v>80</v>
+      </c>
+      <c r="S10">
+        <f>R10*9548.8/Q10</f>
+        <v>173.61454545454546</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5200</v>
       </c>
@@ -689,8 +765,18 @@
         <f t="shared" si="1"/>
         <v>137.72307692307692</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q11">
+        <v>4500</v>
+      </c>
+      <c r="R11">
+        <v>80</v>
+      </c>
+      <c r="S11">
+        <f>R11*9548.8/Q11</f>
+        <v>169.75644444444444</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5400</v>
       </c>
@@ -711,8 +797,18 @@
         <f t="shared" si="1"/>
         <v>132.62222222222223</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q12">
+        <v>4600</v>
+      </c>
+      <c r="R12">
+        <v>80</v>
+      </c>
+      <c r="S12">
+        <f>R12*9548.8/Q12</f>
+        <v>166.06608695652173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5600</v>
       </c>
@@ -734,7 +830,7 @@
         <v>127.88571428571429</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5800</v>
       </c>
@@ -756,7 +852,7 @@
         <v>123.47586206896551</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6000</v>
       </c>
